--- a/biology/Médecine/Miranda_Bailey/Miranda_Bailey.xlsx
+++ b/biology/Médecine/Miranda_Bailey/Miranda_Bailey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dr Miranda Bailey un personnage fictif de la série télévisée Grey's Anatomy et de son spin-off Station 19, surnommée "Le Tyran" ("The Nazi" en V.O.) par ses internes et interprété par l'actrice Chandra Wilson qui a gagné en 2007 le "Screen Actor's Guild Award" pour ce rôle. Chandra Wilson a également été nommée aux Emmy Awards pour ce rôle.
@@ -514,7 +526,9 @@
           <t>Épisodes notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ces épisodes sont centrés sur Miranda ou sont par ailleurs très instructifs sur sa vie.
 Code noir (2x16)
@@ -563,28 +577,275 @@
           <t>Histoire du personnage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le personnage de Miranda Bailey apparaît dans 408 épisodes de l'univers de Grey's Anatomy : 409 fois dans la série mère, 2 fois dans Private Practice et 22 fois dans Station 19.
-Saison 1
-Miranda Bailey est résidente en chirurgie, c'est elle qui s’occupe des internes. Elle est surnommée Le Tyran (The Nazy en VO) par ceux-ci. En effet, elle s’occupe d'eux d'une main de fer, elle est aussi contre la relation entre Meredith et Derek car lui est titulaire alors qu'elle encore interne.
-Saison 2
-Elle accouche d'un petit garçon, pendant que Meredith Grey enlève une bombe du corps d'un homme et que son mari subit une craniectomie à la suite d'un accident de voiture. Elle donnera à son fils le deuxième prénom « George » en référence à son interne George O'Malley qui l'a aidée à accoucher.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Miranda_Bailey</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Miranda_Bailey</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire du personnage</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Miranda Bailey est résidente en chirurgie, c'est elle qui s’occupe des internes. Elle est surnommée Le Tyran (The Nazy en VO) par ceux-ci. En effet, elle s’occupe d'eux d'une main de fer, elle est aussi contre la relation entre Meredith et Derek car lui est titulaire alors qu'elle encore interne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Miranda_Bailey</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Miranda_Bailey</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire du personnage</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Saison 2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle accouche d'un petit garçon, pendant que Meredith Grey enlève une bombe du corps d'un homme et que son mari subit une craniectomie à la suite d'un accident de voiture. Elle donnera à son fils le deuxième prénom « George » en référence à son interne George O'Malley qui l'a aidée à accoucher.
 Bien qu'elle paraisse détachée, elle aime beaucoup ses internes qu'elle materne comme s'ils étaient ses propres enfants. Elle sait toutefois rester ferme et autoritaire avec eux.
 Elle se sent faible et inutile dans la troisième saison et décide de faire quelque chose de plus : le dispensaire Denny Duquette subventionné par Izzie Stevens du nom du fiancé décédé de cette dernière.
-Saison 5
-Elle divorce de son mari, Tucker, ce qui déplait fortement à son père.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Miranda_Bailey</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Miranda_Bailey</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire du personnage</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Saison 5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle divorce de son mari, Tucker, ce qui déplait fortement à son père.
 Elle se laisse attendrir par la chirurgie pédiatrique où elle souhaite entrer pour se spécialiser au côté d'Arizona Robins, mais elle ne supportera pas de voir les enfants mourir. Elle optera finalement pour la chirurgie générale à laquelle elle était promise depuis le début.
 Le cancer d'Izzie Stevens va la toucher et elle essaiera d'être vraiment à ses côtés. D'ailleurs, c'est elle qui aura l'idée d'échanger le mariage de Meredith pour que ce soit le « jour spécial » d'Izzie.
 Elle sera anéantie par la mort de George.
-Saison 6
-Elle a une relation amoureuse avec Ben, un anesthésiste, mais, absent lors de la fusillade, elle lui en voudra ; pensant qu'il ne l'a pas soutenue quand elle en avait le plus besoin. Par ailleurs, lors de cette fusillade, Bailey verra mourir dans ses bras le Dr Charles Pierce, ce qui la traumatisera énormément et la poussera elle et son fils à aller voir ses parents à Baltimore pendant un mois. Cependant, Ben et elle rompront mais elle retrouvera l'amour dans la saison suivante avec Eli, un infirmier têtu qui saura la prendre de haut. Il rompront dans la saison 8 et elle sortira à nouveau avec Ben. Il la demandera en mariage, ce qu'elle acceptera.
-Saison 9
-Bailey traite des patients qui meurent des suites d'une infection, ce qui déclenche une enquête interne qui mettra en cause la nouvelle marque de gants qu'elle utilise. Cela traumatisera Bailey et l’empêchera de pratiquer des opérations, provoquant l'apparition de Troubles Obsessionnels Compulsifs et elle sera testée pour reprendre ses fonctions.
-Saison 10
-Bailey est jalouse de Cristina qui a été nommé pour le Harper Avery, elle finit par l'accepter et féliciter Cristina. Miranda commence un nouveau projet pour aider un petit garçon atteint d'une maladie qui le prive de système immunitaire, elle trouve un moyen pour l'aider et lui injecte le VIH désactivé.
-Saison 12
-Bailey est nommée chef de chirurgie par Catherine Avery et Richard Webber.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Miranda_Bailey</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Miranda_Bailey</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Histoire du personnage</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Saison 6</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a une relation amoureuse avec Ben, un anesthésiste, mais, absent lors de la fusillade, elle lui en voudra ; pensant qu'il ne l'a pas soutenue quand elle en avait le plus besoin. Par ailleurs, lors de cette fusillade, Bailey verra mourir dans ses bras le Dr Charles Pierce, ce qui la traumatisera énormément et la poussera elle et son fils à aller voir ses parents à Baltimore pendant un mois. Cependant, Ben et elle rompront mais elle retrouvera l'amour dans la saison suivante avec Eli, un infirmier têtu qui saura la prendre de haut. Il rompront dans la saison 8 et elle sortira à nouveau avec Ben. Il la demandera en mariage, ce qu'elle acceptera.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Miranda_Bailey</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Miranda_Bailey</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Histoire du personnage</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Saison 9</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bailey traite des patients qui meurent des suites d'une infection, ce qui déclenche une enquête interne qui mettra en cause la nouvelle marque de gants qu'elle utilise. Cela traumatisera Bailey et l’empêchera de pratiquer des opérations, provoquant l'apparition de Troubles Obsessionnels Compulsifs et elle sera testée pour reprendre ses fonctions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Miranda_Bailey</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Miranda_Bailey</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Histoire du personnage</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Saison 10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bailey est jalouse de Cristina qui a été nommé pour le Harper Avery, elle finit par l'accepter et féliciter Cristina. Miranda commence un nouveau projet pour aider un petit garçon atteint d'une maladie qui le prive de système immunitaire, elle trouve un moyen pour l'aider et lui injecte le VIH désactivé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Miranda_Bailey</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Miranda_Bailey</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Histoire du personnage</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Saison 12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bailey est nommée chef de chirurgie par Catherine Avery et Richard Webber.
  Portail des séries télévisées américaines   Portail de la médecine   Portail Disney                   </t>
         </is>
       </c>
